--- a/Dataproperty/TYS_TestCases.xlsx
+++ b/Dataproperty/TYS_TestCases.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12615" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,32 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
-  <si>
-    <t>TC-ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>TC_NAME</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
     <t>To verify whether Admin can able to Login</t>
   </si>
   <si>
-    <t>TC_02</t>
-  </si>
-  <si>
     <t>Admin_creating_a_NewQuiz</t>
   </si>
   <si>
     <t>Quiz title</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
     <t>No. of Questions</t>
   </si>
   <si>
@@ -184,18 +176,12 @@
     <t>Chameleon</t>
   </si>
   <si>
-    <t>TC_04</t>
-  </si>
-  <si>
     <t>Which animal is known as the Ship of te Desert ?</t>
   </si>
   <si>
     <t>StudentTakingQuizAndGivingFeedback</t>
   </si>
   <si>
-    <t>TC_05</t>
-  </si>
-  <si>
     <t>Student Name</t>
   </si>
   <si>
@@ -235,7 +221,10 @@
     <t>Quiz was very eaaaaaaazzzzyyyyyy</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -301,15 +290,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,473 +585,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" activeCellId="1" sqref="C13 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>69</v>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
